--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Fraction of Heat from CHP</t>
-  </si>
-  <si>
-    <t>District heating</t>
   </si>
 </sst>
 </file>
@@ -595,27 +592,272 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="6">
         <f>Data!A6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C2" s="6">
+        <f>$B2</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D2" s="6">
+        <f>$B2</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:AK2" si="0">$B2</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK2" s="6">
+        <f t="shared" si="0"/>
         <v>0.50623017079495658</v>
       </c>
     </row>

--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoHfC" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoHfC" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -66,7 +66,40 @@
     <t>breakdown of CHP vs. non-CHP.</t>
   </si>
   <si>
-    <t>Fraction of Heat from CHP</t>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We do not have data on how CHP fraction varies by fuel type,</t>
+  </si>
+  <si>
+    <t>so we assume the overall CHP fraction applies to all fuel types.</t>
+  </si>
+  <si>
+    <t>It does not matter if some of these fuel types are not used</t>
+  </si>
+  <si>
+    <t>for district heat; the fraction of each fuel that is used is</t>
+  </si>
+  <si>
+    <t>governed by another input variable.</t>
   </si>
 </sst>
 </file>
@@ -133,7 +166,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -145,6 +178,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,6 +529,36 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -592,120 +659,121 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="8">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="8">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="8">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="8">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="8">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="8">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="8">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="8">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="8">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="8">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="8">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="8">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="8">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="8">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="8">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="8">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="8">
         <v>2049</v>
       </c>
       <c r="AK1">
@@ -716,148 +784,893 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6">
-        <f>Data!A6</f>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="C2" s="6">
-        <f>$B2</f>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="D2" s="6">
-        <f>$B2</f>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="E2" s="6">
-        <f t="shared" ref="E2:AK2" si="0">$B2</f>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="F2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="G2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="H2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="I2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="J2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="M2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="N2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="O2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="P2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="Q2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="R2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="S2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="T2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="U2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="V2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="W2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="X2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="Y2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="Z2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AA2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AB2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AC2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AD2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AE2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AF2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AG2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AH2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AI2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AJ2" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50623017079495658</v>
-      </c>
-      <c r="AK2" s="6">
-        <f t="shared" si="0"/>
+      <c r="B2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK7">
+        <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
     </row>

--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\BFoHfC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\dist-heat\BFoHfC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63FCB5D-8F9F-49EF-AD71-603A0D1EA1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="32625" yWindow="2040" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHfC" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -123,12 +137,18 @@
   </si>
   <si>
     <t>Fraction of Heat from CHP (dimensionless)</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -189,10 +209,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -201,7 +220,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -231,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +290,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +362,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,24 +535,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,57 +560,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -603,34 +622,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -644,7 +663,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -658,28 +677,28 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <f>((C2/B2)*D2+(C3/B3)*D3)/SUM(D2:D3)</f>
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -690,134 +709,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="6">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="6">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="6">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="6">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="6">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="7">
+      <c r="X1" s="6">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="Z1" s="6">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="6">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AD1" s="6">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="7">
+      <c r="AF1" s="6">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="7">
+      <c r="AH1" s="6">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="7">
+      <c r="AJ1" s="6">
         <v>2049</v>
       </c>
       <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -966,7 +987,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1136,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1285,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1583,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1711,7 +1732,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2009,7 +2030,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>0.50623017079495658</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2303,6 +2324,304 @@
         <v>0.50623017079495658</v>
       </c>
       <c r="AK11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK12">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ13">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK13">
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
